--- a/Workshop Files/Book List 2.xlsx
+++ b/Workshop Files/Book List 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Runni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Runni\Documents\GitHub\Intro_to_Open_Refine_Workshop\Workshop Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE163A26-700B-49CA-A92B-DE9142D7D2A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA46FC-3F1F-4673-8B36-A684BE93399C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F9CA5F37-C10C-4047-AC1E-5DE9AD791CF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Publication Date</t>
   </si>
@@ -198,9 +198,6 @@
     <t>The Gunslinger</t>
   </si>
   <si>
-    <t>Stephen King</t>
-  </si>
-  <si>
     <t>Stephen King, Peter Straub</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>29 July, 1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Suess </t>
+  </si>
+  <si>
+    <t>Dr. Suess</t>
+  </si>
+  <si>
+    <t>Stephene King</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +742,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -750,7 +756,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -820,7 +826,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -834,10 +840,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -845,13 +851,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -859,13 +865,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
